--- a/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Serie</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3343,6 +3346,26 @@
         <v>368</v>
       </c>
     </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>3991</v>
+      </c>
+      <c r="C134">
+        <v>1378</v>
+      </c>
+      <c r="D134">
+        <v>2223</v>
+      </c>
+      <c r="E134">
+        <v>138</v>
+      </c>
+      <c r="F134">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Serie</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3366,6 +3369,26 @@
         <v>253</v>
       </c>
     </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>2976</v>
+      </c>
+      <c r="C135">
+        <v>1040</v>
+      </c>
+      <c r="D135">
+        <v>1679</v>
+      </c>
+      <c r="E135">
+        <v>104</v>
+      </c>
+      <c r="F135">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Serie</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3389,6 +3392,26 @@
         <v>153</v>
       </c>
     </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>2482</v>
+      </c>
+      <c r="C136">
+        <v>856</v>
+      </c>
+      <c r="D136">
+        <v>1390</v>
+      </c>
+      <c r="E136">
+        <v>87</v>
+      </c>
+      <c r="F136">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
